--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H2">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N2">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q2">
-        <v>3.499727746973562</v>
+        <v>14.57184999027512</v>
       </c>
       <c r="R2">
-        <v>3.499727746973562</v>
+        <v>131.146649912476</v>
       </c>
       <c r="S2">
-        <v>0.1190857518714717</v>
+        <v>0.1345294548357687</v>
       </c>
       <c r="T2">
-        <v>0.1190857518714717</v>
+        <v>0.1345294548357687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H3">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N3">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q3">
-        <v>0.5528520581014222</v>
+        <v>0.7356027348035556</v>
       </c>
       <c r="R3">
-        <v>0.5528520581014222</v>
+        <v>6.620424613232</v>
       </c>
       <c r="S3">
-        <v>0.01881197846593402</v>
+        <v>0.006791192261440136</v>
       </c>
       <c r="T3">
-        <v>0.01881197846593402</v>
+        <v>0.006791192261440137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H4">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N4">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q4">
-        <v>2.482339553477132</v>
+        <v>10.31180606496445</v>
       </c>
       <c r="R4">
-        <v>2.482339553477132</v>
+        <v>92.80625458468</v>
       </c>
       <c r="S4">
-        <v>0.08446693385842702</v>
+        <v>0.09520010494327422</v>
       </c>
       <c r="T4">
-        <v>0.08446693385842702</v>
+        <v>0.09520010494327423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H5">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N5">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q5">
-        <v>8.616550000837243</v>
+        <v>32.69717754919979</v>
       </c>
       <c r="R5">
-        <v>8.616550000837243</v>
+        <v>294.274597942798</v>
       </c>
       <c r="S5">
-        <v>0.2931966168726052</v>
+        <v>0.3018651354013243</v>
       </c>
       <c r="T5">
-        <v>0.2931966168726052</v>
+        <v>0.3018651354013243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H6">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N6">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q6">
-        <v>1.361156565911774</v>
+        <v>1.650588857392889</v>
       </c>
       <c r="R6">
-        <v>1.361156565911774</v>
+        <v>14.855299716536</v>
       </c>
       <c r="S6">
-        <v>0.0463162750892744</v>
+        <v>0.01523847825027379</v>
       </c>
       <c r="T6">
-        <v>0.0463162750892744</v>
+        <v>0.0152384782502738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H7">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N7">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q7">
-        <v>6.111676229697673</v>
+        <v>23.13823941257111</v>
       </c>
       <c r="R7">
-        <v>6.111676229697673</v>
+        <v>208.24415471314</v>
       </c>
       <c r="S7">
-        <v>0.2079629078684579</v>
+        <v>0.2136156175166555</v>
       </c>
       <c r="T7">
-        <v>0.2079629078684579</v>
+        <v>0.2136156175166555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H8">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N8">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q8">
-        <v>3.622408790493731</v>
+        <v>14.34015416894867</v>
       </c>
       <c r="R8">
-        <v>3.622408790493731</v>
+        <v>129.061387520538</v>
       </c>
       <c r="S8">
-        <v>0.1232602378213031</v>
+        <v>0.1323904050547474</v>
       </c>
       <c r="T8">
-        <v>0.1232602378213031</v>
+        <v>0.1323904050547474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H9">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N9">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q9">
-        <v>0.5722319848568129</v>
+        <v>0.7239064793573332</v>
       </c>
       <c r="R9">
-        <v>0.5722319848568129</v>
+        <v>6.515158314215999</v>
       </c>
       <c r="S9">
-        <v>0.01947142209004893</v>
+        <v>0.00668321071689704</v>
       </c>
       <c r="T9">
-        <v>0.01947142209004893</v>
+        <v>0.006683210716897041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H10">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N10">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q10">
-        <v>2.569356609891112</v>
+        <v>10.14784593792666</v>
       </c>
       <c r="R10">
-        <v>2.569356609891112</v>
+        <v>91.33061344133998</v>
       </c>
       <c r="S10">
-        <v>0.08742787606247764</v>
+        <v>0.09368640101961889</v>
       </c>
       <c r="T10">
-        <v>0.08742787606247764</v>
+        <v>0.09368640101961891</v>
       </c>
     </row>
   </sheetData>
